--- a/tools/IP-Planning-Hardware-Requirements -Stein.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements -Stein.xlsx
@@ -1113,6 +1113,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,25 +1146,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,33 +1182,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,11 +1218,41 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1230,41 +1260,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1558,7 +1558,7 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1579,61 +1579,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
     </row>
     <row r="3" spans="2:16" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
     </row>
     <row r="5" spans="2:16" ht="50.4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1683,7 +1683,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>164</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -1707,24 +1707,24 @@
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="59">
         <v>2</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="29" t="s">
         <v>162</v>
       </c>
@@ -1742,16 +1742,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
     </row>
     <row r="8" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="35" t="s">
         <v>202</v>
       </c>
@@ -1769,16 +1769,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
     </row>
     <row r="9" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="50" t="s">
         <v>163</v>
       </c>
@@ -1796,16 +1796,16 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -1829,22 +1829,22 @@
       <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="59">
         <v>4</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
     </row>
     <row r="11" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="29" t="s">
         <v>162</v>
       </c>
@@ -1862,16 +1862,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
     </row>
     <row r="12" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="35" t="s">
         <v>202</v>
       </c>
@@ -1889,16 +1889,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="50" t="s">
         <v>163</v>
       </c>
@@ -1916,16 +1916,16 @@
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -1949,22 +1949,22 @@
       <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="59">
         <v>4</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="29" t="s">
         <v>162</v>
       </c>
@@ -1982,16 +1982,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="35" t="s">
         <v>202</v>
       </c>
@@ -2009,16 +2009,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="50" t="s">
         <v>163</v>
       </c>
@@ -2036,19 +2036,19 @@
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
     </row>
     <row r="18" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F18" s="53"/>
     </row>
     <row r="19" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>190</v>
       </c>
       <c r="C19" s="44" t="s">
@@ -2072,28 +2072,28 @@
       <c r="I19" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="59">
         <v>2</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="64" t="s">
+      <c r="M19" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="N19" s="64" t="s">
+      <c r="N19" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="O19" s="64" t="s">
+      <c r="O19" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="P19" s="65"/>
+      <c r="P19" s="56"/>
     </row>
     <row r="20" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="29" t="s">
         <v>161</v>
       </c>
@@ -2111,16 +2111,16 @@
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
     </row>
     <row r="21" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="35" t="s">
         <v>201</v>
       </c>
@@ -2138,16 +2138,16 @@
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
     </row>
     <row r="22" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>195</v>
       </c>
       <c r="C22" s="44" t="s">
@@ -2171,28 +2171,28 @@
       <c r="I22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="59">
         <v>2</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="M22" s="64" t="s">
+      <c r="M22" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="O22" s="64" t="s">
+      <c r="O22" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="P22" s="65"/>
+      <c r="P22" s="56"/>
     </row>
     <row r="23" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="29" t="s">
         <v>161</v>
       </c>
@@ -2210,16 +2210,16 @@
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
     </row>
     <row r="24" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="35" t="s">
         <v>201</v>
       </c>
@@ -2237,16 +2237,16 @@
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
     </row>
     <row r="25" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>197</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -2270,28 +2270,28 @@
       <c r="I25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="59">
         <v>2</v>
       </c>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="64" t="s">
+      <c r="M25" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="N25" s="64" t="s">
+      <c r="N25" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="O25" s="64" t="s">
+      <c r="O25" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="P25" s="65"/>
+      <c r="P25" s="56"/>
     </row>
     <row r="26" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="29" t="s">
         <v>161</v>
       </c>
@@ -2309,16 +2309,16 @@
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
     </row>
     <row r="27" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="35" t="s">
         <v>201</v>
       </c>
@@ -2336,17 +2336,53 @@
       </c>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
     </row>
     <row r="28" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
     <mergeCell ref="O22:O24"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="B25:B27"/>
@@ -2363,42 +2399,6 @@
     <mergeCell ref="L22:L24"/>
     <mergeCell ref="M22:M24"/>
     <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2432,61 +2432,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="74"/>
     </row>
     <row r="5" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -2536,7 +2536,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>164</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -2560,24 +2560,24 @@
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="59">
         <v>2</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="29" t="s">
         <v>161</v>
       </c>
@@ -2595,16 +2595,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
     </row>
     <row r="8" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="35" t="s">
         <v>162</v>
       </c>
@@ -2622,16 +2622,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
     </row>
     <row r="9" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="50" t="s">
         <v>163</v>
       </c>
@@ -2649,16 +2649,16 @@
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" spans="2:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="75" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -2682,22 +2682,22 @@
       <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="59">
         <v>4</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
     </row>
     <row r="11" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="29" t="s">
         <v>161</v>
       </c>
@@ -2715,16 +2715,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
     </row>
     <row r="12" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="35" t="s">
         <v>162</v>
       </c>
@@ -2742,16 +2742,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="50" t="s">
         <v>163</v>
       </c>
@@ -2769,16 +2769,16 @@
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" spans="2:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="75" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -2802,22 +2802,22 @@
       <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="59">
         <v>4</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="29" t="s">
         <v>161</v>
       </c>
@@ -2835,16 +2835,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="35" t="s">
         <v>162</v>
       </c>
@@ -2862,16 +2862,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="68"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="50" t="s">
         <v>163</v>
       </c>
@@ -2889,28 +2889,16 @@
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
     <mergeCell ref="O10:O13"/>
     <mergeCell ref="P10:P13"/>
     <mergeCell ref="O14:O17"/>
@@ -2927,6 +2915,18 @@
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="M10:M13"/>
     <mergeCell ref="N10:N13"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2958,44 +2958,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -3062,7 +3062,7 @@
       <c r="P5" s="80"/>
     </row>
     <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="75" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -3105,7 +3105,7 @@
       <c r="P6" s="87"/>
     </row>
     <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="P7" s="88"/>
     </row>
     <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="P8" s="88"/>
     </row>
     <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="68"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="75" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -3234,7 +3234,7 @@
       <c r="P11" s="87"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="P12" s="88"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -3284,7 +3284,7 @@
       <c r="P13" s="88"/>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="68"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="75" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -3363,7 +3363,7 @@
       <c r="P16" s="87"/>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="P17" s="88"/>
     </row>
     <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="P18" s="88"/>
     </row>
     <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="68"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="P20" s="80"/>
     </row>
     <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="75" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -3496,7 +3496,7 @@
       <c r="P21" s="87"/>
     </row>
     <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="P22" s="88"/>
     </row>
     <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="P23" s="88"/>
     </row>
     <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="68"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="P25" s="80"/>
     </row>
     <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="75" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -3629,7 +3629,7 @@
       <c r="P26" s="87"/>
     </row>
     <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="P27" s="88"/>
     </row>
     <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="P28" s="88"/>
     </row>
     <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="P30" s="80"/>
     </row>
     <row r="31" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="75" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -3762,7 +3762,7 @@
       <c r="P31" s="87"/>
     </row>
     <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="P32" s="88"/>
     </row>
     <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="67"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="P33" s="88"/>
     </row>
     <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="68"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -3838,6 +3838,51 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -3850,51 +3895,6 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3928,44 +3928,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -4015,25 +4015,25 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="90"/>
+      <c r="G5" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="104"/>
       <c r="I5" s="11"/>
       <c r="J5" s="81">
         <v>2</v>
@@ -4050,15 +4050,15 @@
       <c r="P5" s="87"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="12"/>
       <c r="J6" s="82"/>
       <c r="K6" s="82"/>
@@ -4069,23 +4069,23 @@
       <c r="P6" s="88"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="94"/>
+      <c r="G7" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="96"/>
       <c r="I7" s="9"/>
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
@@ -4096,15 +4096,15 @@
       <c r="P7" s="88"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="13"/>
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
@@ -4115,11 +4115,11 @@
       <c r="P8" s="88"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="98" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -4128,13 +4128,13 @@
       <c r="F9" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="98" t="s">
+      <c r="G9" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="82"/>
@@ -4146,16 +4146,16 @@
       <c r="P9" s="88"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="101"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
       <c r="L10" s="85"/>
@@ -4165,24 +4165,24 @@
       <c r="P10" s="88"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="102" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
+      <c r="G11" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
       <c r="L11" s="85"/>
@@ -4192,16 +4192,16 @@
       <c r="P11" s="88"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
       <c r="J12" s="83"/>
       <c r="K12" s="83"/>
       <c r="L12" s="85"/>
@@ -4211,25 +4211,25 @@
       <c r="P12" s="88"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="90"/>
+      <c r="G13" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="104"/>
       <c r="I13" s="11"/>
       <c r="J13" s="81">
         <v>2</v>
@@ -4246,15 +4246,15 @@
       <c r="P13" s="87"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="12"/>
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
@@ -4265,23 +4265,23 @@
       <c r="P14" s="88"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="76"/>
+      <c r="C15" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="94"/>
+      <c r="G15" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="96"/>
       <c r="I15" s="9"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
@@ -4292,15 +4292,15 @@
       <c r="P15" s="88"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="13"/>
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
@@ -4311,11 +4311,11 @@
       <c r="P16" s="88"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="98" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -4324,13 +4324,13 @@
       <c r="F17" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="98" t="s">
+      <c r="G17" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="98" t="s">
+      <c r="I17" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="82"/>
@@ -4342,16 +4342,16 @@
       <c r="P17" s="88"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="101"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
       <c r="L18" s="85"/>
@@ -4361,24 +4361,24 @@
       <c r="P18" s="88"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="102" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
+      <c r="G19" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
       <c r="L19" s="85"/>
@@ -4388,16 +4388,16 @@
       <c r="P19" s="88"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="68"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="83"/>
       <c r="K20" s="83"/>
       <c r="L20" s="86"/>
@@ -4407,44 +4407,44 @@
       <c r="P20" s="89"/>
     </row>
     <row r="21" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="71"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
     </row>
     <row r="22" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="75" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="77"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
     </row>
     <row r="23" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
@@ -4494,26 +4494,26 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
+      <c r="G24" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
       <c r="J24" s="81">
         <v>2</v>
       </c>
@@ -4529,16 +4529,16 @@
       <c r="P24" s="87"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="93"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
       <c r="L25" s="85"/>
@@ -4548,26 +4548,26 @@
       <c r="P25" s="88"/>
     </row>
     <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="98" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="98" t="s">
+      <c r="G26" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="98" t="s">
+      <c r="I26" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="82"/>
@@ -4579,16 +4579,16 @@
       <c r="P26" s="88"/>
     </row>
     <row r="27" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="101"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="82"/>
       <c r="K27" s="82"/>
       <c r="L27" s="85"/>
@@ -4598,26 +4598,26 @@
       <c r="P27" s="88"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D28" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
+      <c r="G28" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
       <c r="J28" s="81">
         <v>2</v>
       </c>
@@ -4633,16 +4633,16 @@
       <c r="P28" s="87"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="67"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="93"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
       <c r="J29" s="82"/>
       <c r="K29" s="82"/>
       <c r="L29" s="85"/>
@@ -4652,26 +4652,26 @@
       <c r="P29" s="88"/>
     </row>
     <row r="30" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="98" t="s">
+      <c r="B30" s="76"/>
+      <c r="C30" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="98" t="s">
+      <c r="G30" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="98" t="s">
+      <c r="I30" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="82"/>
@@ -4683,16 +4683,16 @@
       <c r="P30" s="88"/>
     </row>
     <row r="31" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99" t="s">
+      <c r="B31" s="76"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="101"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
       <c r="L31" s="85"/>
@@ -4702,26 +4702,26 @@
       <c r="P31" s="88"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="90" t="s">
+      <c r="D32" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="92" t="s">
+      <c r="F32" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
+      <c r="G32" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
       <c r="J32" s="81">
         <v>2</v>
       </c>
@@ -4737,16 +4737,16 @@
       <c r="P32" s="87"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="67"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="93"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
       <c r="J33" s="82"/>
       <c r="K33" s="82"/>
       <c r="L33" s="85"/>
@@ -4756,26 +4756,26 @@
       <c r="P33" s="88"/>
     </row>
     <row r="34" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="67"/>
-      <c r="C34" s="98" t="s">
+      <c r="B34" s="76"/>
+      <c r="C34" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="98" t="s">
+      <c r="D34" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="98" t="s">
+      <c r="G34" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="98" t="s">
+      <c r="I34" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="82"/>
@@ -4787,16 +4787,16 @@
       <c r="P34" s="88"/>
     </row>
     <row r="35" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="68"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99" t="s">
+      <c r="B35" s="77"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="101"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="83"/>
       <c r="K35" s="83"/>
       <c r="L35" s="86"/>
@@ -4806,44 +4806,44 @@
       <c r="P35" s="89"/>
     </row>
     <row r="36" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="71"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="68"/>
     </row>
     <row r="37" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="75" t="s">
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="77"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="74"/>
     </row>
     <row r="38" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
@@ -4893,26 +4893,26 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="90" t="s">
+      <c r="C39" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="92" t="s">
+      <c r="F39" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
+      <c r="G39" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="81">
         <v>2</v>
       </c>
@@ -4928,16 +4928,16 @@
       <c r="P39" s="87"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="67"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="93"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
       <c r="J40" s="82"/>
       <c r="K40" s="82"/>
       <c r="L40" s="85"/>
@@ -4947,26 +4947,26 @@
       <c r="P40" s="88"/>
     </row>
     <row r="41" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B41" s="67"/>
-      <c r="C41" s="98" t="s">
+      <c r="B41" s="76"/>
+      <c r="C41" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="98" t="s">
+      <c r="E41" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="98" t="s">
+      <c r="G41" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="98" t="s">
+      <c r="I41" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J41" s="82"/>
@@ -4978,16 +4978,16 @@
       <c r="P41" s="88"/>
     </row>
     <row r="42" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B42" s="67"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99" t="s">
+      <c r="B42" s="76"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="101"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
       <c r="J42" s="82"/>
       <c r="K42" s="82"/>
       <c r="L42" s="85"/>
@@ -4997,26 +4997,26 @@
       <c r="P42" s="88"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="92" t="s">
+      <c r="F43" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
+      <c r="G43" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
       <c r="J43" s="81">
         <v>2</v>
       </c>
@@ -5032,16 +5032,16 @@
       <c r="P43" s="87"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="67"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
       <c r="J44" s="82"/>
       <c r="K44" s="82"/>
       <c r="L44" s="85"/>
@@ -5051,26 +5051,26 @@
       <c r="P44" s="88"/>
     </row>
     <row r="45" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B45" s="67"/>
-      <c r="C45" s="98" t="s">
+      <c r="B45" s="76"/>
+      <c r="C45" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="98" t="s">
+      <c r="D45" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="98" t="s">
+      <c r="E45" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="98" t="s">
+      <c r="G45" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="98" t="s">
+      <c r="I45" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J45" s="82"/>
@@ -5082,16 +5082,16 @@
       <c r="P45" s="88"/>
     </row>
     <row r="46" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B46" s="67"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99" t="s">
+      <c r="B46" s="76"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="101"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
       <c r="J46" s="82"/>
       <c r="K46" s="82"/>
       <c r="L46" s="85"/>
@@ -5101,26 +5101,26 @@
       <c r="P46" s="88"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="90" t="s">
+      <c r="C47" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="90" t="s">
+      <c r="D47" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="92" t="s">
+      <c r="F47" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
+      <c r="G47" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
       <c r="J47" s="81">
         <v>2</v>
       </c>
@@ -5136,16 +5136,16 @@
       <c r="P47" s="87"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="67"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="93"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
       <c r="J48" s="82"/>
       <c r="K48" s="82"/>
       <c r="L48" s="85"/>
@@ -5155,26 +5155,26 @@
       <c r="P48" s="88"/>
     </row>
     <row r="49" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B49" s="67"/>
-      <c r="C49" s="98" t="s">
+      <c r="B49" s="76"/>
+      <c r="C49" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="98" t="s">
+      <c r="D49" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="98" t="s">
+      <c r="E49" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="98" t="s">
+      <c r="G49" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="98" t="s">
+      <c r="I49" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J49" s="82"/>
@@ -5186,16 +5186,16 @@
       <c r="P49" s="88"/>
     </row>
     <row r="50" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="101"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
       <c r="J50" s="83"/>
       <c r="K50" s="83"/>
       <c r="L50" s="86"/>
@@ -5205,44 +5205,44 @@
       <c r="P50" s="89"/>
     </row>
     <row r="51" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="71"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="68"/>
     </row>
     <row r="52" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="75" t="s">
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="77"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="74"/>
     </row>
     <row r="53" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
@@ -5292,25 +5292,25 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="90" t="s">
+      <c r="D54" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="92" t="s">
+      <c r="F54" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="90"/>
+      <c r="G54" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="104"/>
       <c r="I54" s="11"/>
       <c r="J54" s="81">
         <v>2</v>
@@ -5327,15 +5327,15 @@
       <c r="P54" s="87"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="67"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="93"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
       <c r="I55" s="12"/>
       <c r="J55" s="82"/>
       <c r="K55" s="82"/>
@@ -5346,23 +5346,23 @@
       <c r="P55" s="88"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="67"/>
-      <c r="C56" s="94" t="s">
+      <c r="B56" s="76"/>
+      <c r="C56" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="94" t="s">
+      <c r="D56" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="96" t="s">
+      <c r="F56" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="94"/>
+      <c r="G56" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="96"/>
       <c r="I56" s="9"/>
       <c r="J56" s="82"/>
       <c r="K56" s="82"/>
@@ -5373,15 +5373,15 @@
       <c r="P56" s="88"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="67"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="97"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
       <c r="I57" s="13"/>
       <c r="J57" s="82"/>
       <c r="K57" s="82"/>
@@ -5392,11 +5392,11 @@
       <c r="P57" s="88"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="67"/>
-      <c r="C58" s="98" t="s">
+      <c r="B58" s="76"/>
+      <c r="C58" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="98" t="s">
+      <c r="D58" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
@@ -5405,13 +5405,13 @@
       <c r="F58" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="98" t="s">
+      <c r="G58" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="98" t="s">
+      <c r="I58" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="82"/>
@@ -5423,16 +5423,16 @@
       <c r="P58" s="88"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="101"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="99"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
       <c r="J59" s="82"/>
       <c r="K59" s="82"/>
       <c r="L59" s="85"/>
@@ -5442,24 +5442,24 @@
       <c r="P59" s="88"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="67"/>
-      <c r="C60" s="102" t="s">
+      <c r="B60" s="76"/>
+      <c r="C60" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="102" t="s">
+      <c r="D60" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
+      <c r="G60" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
       <c r="J60" s="82"/>
       <c r="K60" s="82"/>
       <c r="L60" s="85"/>
@@ -5469,16 +5469,16 @@
       <c r="P60" s="88"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="67"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
       <c r="J61" s="83"/>
       <c r="K61" s="83"/>
       <c r="L61" s="85"/>
@@ -5488,25 +5488,25 @@
       <c r="P61" s="88"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="90" t="s">
+      <c r="C62" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="90" t="s">
+      <c r="D62" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="92" t="s">
+      <c r="F62" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="90"/>
+      <c r="G62" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="104"/>
       <c r="I62" s="11"/>
       <c r="J62" s="81">
         <v>2</v>
@@ -5523,15 +5523,15 @@
       <c r="P62" s="87"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="67"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="93"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="91"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
       <c r="I63" s="12"/>
       <c r="J63" s="82"/>
       <c r="K63" s="82"/>
@@ -5542,23 +5542,23 @@
       <c r="P63" s="88"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="67"/>
-      <c r="C64" s="94" t="s">
+      <c r="B64" s="76"/>
+      <c r="C64" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="94" t="s">
+      <c r="D64" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="96" t="s">
+      <c r="F64" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="94"/>
+      <c r="G64" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="96"/>
       <c r="I64" s="9"/>
       <c r="J64" s="82"/>
       <c r="K64" s="82"/>
@@ -5569,15 +5569,15 @@
       <c r="P64" s="88"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="67"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="97"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="95"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
       <c r="I65" s="13"/>
       <c r="J65" s="82"/>
       <c r="K65" s="82"/>
@@ -5588,11 +5588,11 @@
       <c r="P65" s="88"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="67"/>
-      <c r="C66" s="98" t="s">
+      <c r="B66" s="76"/>
+      <c r="C66" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="98" t="s">
+      <c r="D66" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
@@ -5601,13 +5601,13 @@
       <c r="F66" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="98" t="s">
+      <c r="G66" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="98" t="s">
+      <c r="I66" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J66" s="82"/>
@@ -5619,16 +5619,16 @@
       <c r="P66" s="88"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="67"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="101"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
       <c r="J67" s="82"/>
       <c r="K67" s="82"/>
       <c r="L67" s="85"/>
@@ -5638,24 +5638,24 @@
       <c r="P67" s="88"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="67"/>
-      <c r="C68" s="102" t="s">
+      <c r="B68" s="76"/>
+      <c r="C68" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="102" t="s">
+      <c r="D68" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="104" t="s">
+      <c r="F68" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="102"/>
-      <c r="I68" s="102"/>
+      <c r="G68" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
       <c r="J68" s="82"/>
       <c r="K68" s="82"/>
       <c r="L68" s="85"/>
@@ -5665,16 +5665,16 @@
       <c r="P68" s="88"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="68"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="103"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="105"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="103"/>
-      <c r="I69" s="103"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93"/>
       <c r="J69" s="83"/>
       <c r="K69" s="83"/>
       <c r="L69" s="86"/>
@@ -5684,25 +5684,25 @@
       <c r="P69" s="89"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="90" t="s">
+      <c r="C70" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="90" t="s">
+      <c r="D70" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="92" t="s">
+      <c r="F70" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="90"/>
+      <c r="G70" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="104"/>
       <c r="I70" s="11"/>
       <c r="J70" s="81">
         <v>2</v>
@@ -5719,15 +5719,15 @@
       <c r="P70" s="87"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="67"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="93"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
       <c r="I71" s="12"/>
       <c r="J71" s="82"/>
       <c r="K71" s="82"/>
@@ -5738,23 +5738,23 @@
       <c r="P71" s="88"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="67"/>
-      <c r="C72" s="94" t="s">
+      <c r="B72" s="76"/>
+      <c r="C72" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="94" t="s">
+      <c r="D72" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="96" t="s">
+      <c r="F72" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="94"/>
+      <c r="G72" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="96"/>
       <c r="I72" s="9"/>
       <c r="J72" s="82"/>
       <c r="K72" s="82"/>
@@ -5765,15 +5765,15 @@
       <c r="P72" s="88"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="67"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="97"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="95"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
       <c r="I73" s="13"/>
       <c r="J73" s="82"/>
       <c r="K73" s="82"/>
@@ -5784,11 +5784,11 @@
       <c r="P73" s="88"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="67"/>
-      <c r="C74" s="98" t="s">
+      <c r="B74" s="76"/>
+      <c r="C74" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="98" t="s">
+      <c r="D74" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
@@ -5797,13 +5797,13 @@
       <c r="F74" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="98" t="s">
+      <c r="G74" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="98" t="s">
+      <c r="I74" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J74" s="82"/>
@@ -5815,16 +5815,16 @@
       <c r="P74" s="88"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="67"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="101"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
       <c r="J75" s="82"/>
       <c r="K75" s="82"/>
       <c r="L75" s="85"/>
@@ -5834,24 +5834,24 @@
       <c r="P75" s="88"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="67"/>
-      <c r="C76" s="102" t="s">
+      <c r="B76" s="76"/>
+      <c r="C76" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="102" t="s">
+      <c r="D76" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="104" t="s">
+      <c r="F76" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
+      <c r="G76" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
       <c r="J76" s="82"/>
       <c r="K76" s="82"/>
       <c r="L76" s="85"/>
@@ -5861,16 +5861,16 @@
       <c r="P76" s="88"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="68"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="105"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
       <c r="J77" s="83"/>
       <c r="K77" s="83"/>
       <c r="L77" s="86"/>
@@ -5881,27 +5881,249 @@
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="P62:P69"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
@@ -5926,249 +6148,27 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="M62:M69"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6199,44 +6199,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -6286,28 +6286,28 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="96" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="94" t="s">
+      <c r="G5" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="96" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="82"/>
@@ -6319,16 +6319,16 @@
       <c r="P5" s="88"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="82"/>
       <c r="K6" s="82"/>
       <c r="L6" s="85"/>
@@ -6338,11 +6338,11 @@
       <c r="P6" s="88"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="98" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -6351,11 +6351,11 @@
       <c r="F7" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
+      <c r="G7" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
       <c r="L7" s="85"/>
@@ -6365,16 +6365,16 @@
       <c r="P7" s="88"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="101"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
       <c r="L8" s="85"/>
@@ -6384,7 +6384,7 @@
       <c r="P8" s="88"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="106" t="s">
         <v>89</v>
       </c>
@@ -6411,16 +6411,16 @@
       <c r="P9" s="88"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="83"/>
       <c r="K10" s="83"/>
       <c r="L10" s="85"/>
@@ -6430,28 +6430,28 @@
       <c r="P10" s="88"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="96" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="94" t="s">
+      <c r="G11" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="96" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="82"/>
@@ -6463,16 +6463,16 @@
       <c r="P11" s="88"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
       <c r="L12" s="85"/>
@@ -6482,11 +6482,11 @@
       <c r="P12" s="88"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="98" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -6495,11 +6495,11 @@
       <c r="F13" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
+      <c r="G13" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
       <c r="L13" s="85"/>
@@ -6509,16 +6509,16 @@
       <c r="P13" s="88"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="101"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
       <c r="L14" s="85"/>
@@ -6528,7 +6528,7 @@
       <c r="P14" s="88"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="106" t="s">
         <v>89</v>
       </c>
@@ -6541,11 +6541,11 @@
       <c r="F15" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="G15" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
       <c r="L15" s="85"/>
@@ -6555,16 +6555,16 @@
       <c r="P15" s="88"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="68"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
       <c r="L16" s="86"/>
@@ -6574,28 +6574,28 @@
       <c r="P16" s="89"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="96" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="96" t="s">
+      <c r="F17" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="94" t="s">
+      <c r="G17" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="94" t="s">
+      <c r="I17" s="96" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="82"/>
@@ -6607,16 +6607,16 @@
       <c r="P17" s="88"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
       <c r="L18" s="85"/>
@@ -6626,11 +6626,11 @@
       <c r="P18" s="88"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="98" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -6639,11 +6639,11 @@
       <c r="F19" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
+      <c r="G19" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
       <c r="L19" s="85"/>
@@ -6653,16 +6653,16 @@
       <c r="P19" s="88"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="101"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
       <c r="L20" s="85"/>
@@ -6672,7 +6672,7 @@
       <c r="P20" s="88"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="106" t="s">
         <v>89</v>
       </c>
@@ -6685,11 +6685,11 @@
       <c r="F21" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
+      <c r="G21" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
       <c r="L21" s="85"/>
@@ -6699,16 +6699,16 @@
       <c r="P21" s="88"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="68"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
       <c r="L22" s="86"/>
@@ -6719,6 +6719,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="P5:P10"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
@@ -6735,71 +6800,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P17:P22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6833,61 +6833,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="74"/>
     </row>
     <row r="5" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -6937,7 +6937,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -6957,16 +6957,16 @@
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="29" t="s">
         <v>74</v>
       </c>
@@ -6984,16 +6984,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
     </row>
     <row r="8" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="35" t="s">
         <v>136</v>
       </c>
@@ -7011,16 +7011,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
     </row>
     <row r="9" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="50" t="s">
         <v>138</v>
       </c>
@@ -7042,16 +7042,16 @@
       <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -7071,16 +7071,16 @@
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
     </row>
     <row r="11" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="29" t="s">
         <v>74</v>
       </c>
@@ -7098,16 +7098,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
     </row>
     <row r="12" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="35" t="s">
         <v>136</v>
       </c>
@@ -7125,16 +7125,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="50" t="s">
         <v>138</v>
       </c>
@@ -7156,16 +7156,16 @@
       <c r="I13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>158</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -7185,16 +7185,16 @@
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
@@ -7212,16 +7212,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="35" t="s">
         <v>136</v>
       </c>
@@ -7239,16 +7239,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="50" t="s">
         <v>138</v>
       </c>
@@ -7270,16 +7270,28 @@
       <c r="I17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
     <mergeCell ref="P14:P17"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="L14:L17"/>
@@ -7296,18 +7308,6 @@
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="M10:M13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7341,63 +7341,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="74"/>
     </row>
     <row r="5" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -7447,25 +7447,25 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="90"/>
+      <c r="G6" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="104"/>
       <c r="I6" s="11"/>
       <c r="J6" s="81">
         <v>2</v>
@@ -7482,15 +7482,15 @@
       <c r="P6" s="87"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="12"/>
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
@@ -7501,23 +7501,23 @@
       <c r="P7" s="88"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="94"/>
+      <c r="G8" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="96"/>
       <c r="I8" s="9"/>
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
@@ -7528,15 +7528,15 @@
       <c r="P8" s="88"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="13"/>
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
@@ -7547,11 +7547,11 @@
       <c r="P9" s="88"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="98" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="36" t="s">
@@ -7560,13 +7560,13 @@
       <c r="F10" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="98" t="s">
+      <c r="G10" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="82"/>
@@ -7578,16 +7578,16 @@
       <c r="P10" s="88"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="101"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
       <c r="L11" s="85"/>
@@ -7597,24 +7597,24 @@
       <c r="P11" s="88"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="102" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
+      <c r="G12" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
       <c r="L12" s="85"/>
@@ -7624,16 +7624,16 @@
       <c r="P12" s="88"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="83"/>
       <c r="K13" s="83"/>
       <c r="L13" s="85"/>
@@ -7643,25 +7643,25 @@
       <c r="P13" s="88"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="90"/>
+      <c r="G14" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="104"/>
       <c r="I14" s="11"/>
       <c r="J14" s="81">
         <v>2</v>
@@ -7678,15 +7678,15 @@
       <c r="P14" s="87"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
       <c r="I15" s="12"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
@@ -7697,23 +7697,23 @@
       <c r="P15" s="88"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="94" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="94"/>
+      <c r="G16" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="96"/>
       <c r="I16" s="9"/>
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
@@ -7724,15 +7724,15 @@
       <c r="P16" s="88"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="13"/>
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
@@ -7743,11 +7743,11 @@
       <c r="P17" s="88"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="98" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
@@ -7756,13 +7756,13 @@
       <c r="F18" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="98" t="s">
+      <c r="G18" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="82"/>
@@ -7774,16 +7774,16 @@
       <c r="P18" s="88"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="101"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
       <c r="L19" s="85"/>
@@ -7793,24 +7793,24 @@
       <c r="P19" s="88"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="102" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
+      <c r="G20" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
       <c r="L20" s="85"/>
@@ -7820,16 +7820,16 @@
       <c r="P20" s="88"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="68"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="83"/>
       <c r="K21" s="83"/>
       <c r="L21" s="86"/>
@@ -7839,25 +7839,25 @@
       <c r="P21" s="89"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="90"/>
+      <c r="G22" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="104"/>
       <c r="I22" s="11"/>
       <c r="J22" s="81">
         <v>2</v>
@@ -7874,15 +7874,15 @@
       <c r="P22" s="87"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="93"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="12"/>
       <c r="J23" s="82"/>
       <c r="K23" s="82"/>
@@ -7893,23 +7893,23 @@
       <c r="P23" s="88"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="94" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="96" t="s">
+      <c r="F24" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="94"/>
+      <c r="G24" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="96"/>
       <c r="I24" s="9"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
@@ -7920,15 +7920,15 @@
       <c r="P24" s="88"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="97"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
       <c r="I25" s="13"/>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
@@ -7939,11 +7939,11 @@
       <c r="P25" s="88"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="98" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="36" t="s">
@@ -7952,13 +7952,13 @@
       <c r="F26" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="98" t="s">
+      <c r="G26" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="98" t="s">
+      <c r="I26" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="82"/>
@@ -7970,16 +7970,16 @@
       <c r="P26" s="88"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="101"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="82"/>
       <c r="K27" s="82"/>
       <c r="L27" s="85"/>
@@ -7989,24 +7989,24 @@
       <c r="P27" s="88"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="102" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="92" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="104" t="s">
+      <c r="F28" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
+      <c r="G28" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
       <c r="L28" s="85"/>
@@ -8016,16 +8016,16 @@
       <c r="P28" s="88"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="105"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
       <c r="J29" s="83"/>
       <c r="K29" s="83"/>
       <c r="L29" s="86"/>
@@ -8036,6 +8036,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="O6:O13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="N6:N13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="P14:P21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="N14:N21"/>
+    <mergeCell ref="O14:O21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="O22:O29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="P22:P29"/>
@@ -8052,84 +8130,6 @@
     <mergeCell ref="K22:K29"/>
     <mergeCell ref="L22:L29"/>
     <mergeCell ref="M22:M29"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="O22:O29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="P14:P21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="N14:N21"/>
-    <mergeCell ref="O14:O21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="N6:N13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="O6:O13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
